--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,36 +43,36 @@
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -82,63 +82,60 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
     <t>hand</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
@@ -157,52 +160,55 @@
     <t>care</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -732,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,13 +762,13 @@
         <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -782,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6986301369863014</v>
+        <v>0.6883561643835616</v>
       </c>
       <c r="C6">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D6">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -832,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -850,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5384615384615384</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8203125</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3585271317829458</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C10">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>331</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1062,13 @@
         <v>30</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.291005291005291</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K12">
-        <v>0.7916666666666666</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2857142857142857</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1904761904761905</v>
+        <v>0.1626984126984127</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>33</v>
@@ -1232,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.09115281501340483</v>
+        <v>0.07774798927613941</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7619047619047619</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1288,13 @@
         <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7450980392156863</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1308,13 +1314,13 @@
         <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7375</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1326,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1334,13 +1340,13 @@
         <v>37</v>
       </c>
       <c r="K18">
-        <v>0.73125</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L18">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="M18">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1352,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1360,13 +1366,13 @@
         <v>38</v>
       </c>
       <c r="K19">
-        <v>0.7169811320754716</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1378,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1386,13 +1392,13 @@
         <v>39</v>
       </c>
       <c r="K20">
-        <v>0.7021276595744681</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L20">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M20">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1404,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1412,13 +1418,13 @@
         <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1430,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1438,13 +1444,13 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6388888888888888</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1456,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1464,13 +1470,13 @@
         <v>42</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1482,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1490,13 +1496,13 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6214099216710183</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L24">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1508,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1516,13 +1522,13 @@
         <v>44</v>
       </c>
       <c r="K25">
-        <v>0.5676470588235294</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L25">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1534,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>147</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1542,13 +1548,13 @@
         <v>45</v>
       </c>
       <c r="K26">
-        <v>0.54</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1560,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1568,13 +1574,13 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>0.5393258426966292</v>
+        <v>0.54</v>
       </c>
       <c r="L27">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1586,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1594,13 +1600,13 @@
         <v>47</v>
       </c>
       <c r="K28">
-        <v>0.5389830508474577</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L28">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="M28">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1612,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>136</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1620,13 +1626,13 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1638,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1646,13 +1652,13 @@
         <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1664,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1672,13 +1678,13 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0.4931506849315068</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1690,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1698,13 +1704,13 @@
         <v>51</v>
       </c>
       <c r="K32">
-        <v>0.4518828451882845</v>
+        <v>0.488135593220339</v>
       </c>
       <c r="L32">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="M32">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1716,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1724,13 +1730,13 @@
         <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4307692307692308</v>
+        <v>0.4476987447698745</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1742,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1750,13 +1756,13 @@
         <v>53</v>
       </c>
       <c r="K34">
-        <v>0.40625</v>
+        <v>0.4375</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1768,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1776,13 +1782,13 @@
         <v>54</v>
       </c>
       <c r="K35">
-        <v>0.3857142857142857</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1794,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1828,13 +1834,13 @@
         <v>56</v>
       </c>
       <c r="K37">
-        <v>0.3205128205128205</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1846,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1854,25 +1860,25 @@
         <v>57</v>
       </c>
       <c r="K38">
-        <v>0.1124401913875598</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="L38">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>371</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1880,13 +1886,13 @@
         <v>58</v>
       </c>
       <c r="K39">
-        <v>0.07932692307692307</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1898,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1906,13 +1912,13 @@
         <v>59</v>
       </c>
       <c r="K40">
-        <v>0.07046979865771812</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="L40">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M40">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1924,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>831</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1932,13 +1938,13 @@
         <v>60</v>
       </c>
       <c r="K41">
-        <v>0.04439511653718091</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1950,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>861</v>
+        <v>828</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1958,25 +1964,25 @@
         <v>61</v>
       </c>
       <c r="K42">
-        <v>0.02760879737950398</v>
+        <v>0.04994450610432852</v>
       </c>
       <c r="L42">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M42">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N42">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>2078</v>
+        <v>856</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1984,25 +1990,25 @@
         <v>62</v>
       </c>
       <c r="K43">
-        <v>0.02537485582468281</v>
+        <v>0.03697996918335902</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>845</v>
+        <v>625</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2010,25 +2016,77 @@
         <v>63</v>
       </c>
       <c r="K44">
-        <v>0.01160167579761521</v>
+        <v>0.02306805074971165</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>3067</v>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45">
+        <v>0.0205607476635514</v>
+      </c>
+      <c r="L45">
+        <v>44</v>
+      </c>
+      <c r="M45">
+        <v>47</v>
+      </c>
+      <c r="N45">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O45">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46">
+        <v>0.01387096774193548</v>
+      </c>
+      <c r="L46">
+        <v>43</v>
+      </c>
+      <c r="M46">
+        <v>50</v>
+      </c>
+      <c r="N46">
+        <v>0.86</v>
+      </c>
+      <c r="O46">
+        <v>0.14</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3057</v>
       </c>
     </row>
   </sheetData>
